--- a/08-Gen-Tech/Heroku-Vs-AWS-PostGresDB/Response.xlsx
+++ b/08-Gen-Tech/Heroku-Vs-AWS-PostGresDB/Response.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDDOCS\GCP-WORKSPACE\genai_rag_plus\08-Gen-Tech\Heroku-Vs-AWS-PostGresDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F12DAFDC-A12F-4299-81D8-2D9450FE5EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44C61CD-F792-446D-B6D8-CF85540E0A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{993F3EBB-A435-4801-BEBA-8D5D89657337}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Heroku-AWS" sheetId="1" r:id="rId1"/>
+    <sheet name="Legend" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Heroku-AWS'!$A$1:$F$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
   <si>
     <t>Heroku PostgreSQL vs AWS Managed PostgreSQL Database Service Comparison</t>
   </si>
@@ -159,6 +163,24 @@
   </si>
   <si>
     <t>AWS offers extensive integration options with other AWS services, enabling a wide range of use cases.</t>
+  </si>
+  <si>
+    <t>Heroku-AWS</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conclusion - ADR Expiry? Locking and Tech Debt? </t>
   </si>
 </sst>
 </file>
@@ -193,12 +215,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -213,20 +241,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -563,289 +594,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9420E575-CD12-4725-B2EC-9EA638941BD6}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.76953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.2265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.76953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.2265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.6">
+      <c r="E18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F16" xr:uid="{9420E575-CD12-4725-B2EC-9EA638941BD6}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5A7488-27E8-4A02-99F5-025FDAF404BD}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
